--- a/帳票Excel様式/02_個別機能訓練加算/別紙様式３_210216_対応項目.xlsx
+++ b/帳票Excel様式/02_個別機能訓練加算/別紙様式３_210216_対応項目.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutu.li\Desktop\local play ground\加算様式一式\02_個別機能訓練加算\02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_directry\帳票Excel様式\02_個別機能訓練加算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12AF90E-EF5B-42DF-A4EA-991691DAFB5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CEB59B-DF8F-4E6D-9E4D-A5DA812EE536}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="209">
   <si>
     <t>No</t>
   </si>
@@ -616,6 +616,150 @@
   </si>
   <si>
     <t>YYYYMMDD</t>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AL6</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AQ6</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>A8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AF8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>A20</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>A13</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AF13</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>A16</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AF16</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>A21</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>A23</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>A25</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>A33</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AF33</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>C40</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AF40</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AS40</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AY40</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>C43</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AF43</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AS43</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AY43</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BE40</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BE43</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>C46</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>C49</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AF49</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AS49</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AY49</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BE49</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AS52</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>A55</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AF55</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>A60</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AF60</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1242,6 +1386,9 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
+      <c r="E8" t="s">
+        <v>173</v>
+      </c>
       <c r="F8" t="s">
         <v>168</v>
       </c>
@@ -1314,6 +1461,9 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
+      <c r="E11" t="s">
+        <v>174</v>
+      </c>
       <c r="F11" t="s">
         <v>169</v>
       </c>
@@ -1357,6 +1507,9 @@
       <c r="D13" t="s">
         <v>21</v>
       </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
       <c r="F13" t="s">
         <v>169</v>
       </c>
@@ -1380,6 +1533,9 @@
       <c r="D14" t="s">
         <v>22</v>
       </c>
+      <c r="E14" t="s">
+        <v>176</v>
+      </c>
       <c r="F14" t="s">
         <v>169</v>
       </c>
@@ -1403,6 +1559,9 @@
       <c r="D15" t="s">
         <v>23</v>
       </c>
+      <c r="E15" t="s">
+        <v>177</v>
+      </c>
       <c r="F15" t="s">
         <v>169</v>
       </c>
@@ -1426,6 +1585,9 @@
       <c r="D16" t="s">
         <v>24</v>
       </c>
+      <c r="E16" t="s">
+        <v>179</v>
+      </c>
       <c r="G16" t="s">
         <v>170</v>
       </c>
@@ -1446,6 +1608,9 @@
       <c r="D17" t="s">
         <v>25</v>
       </c>
+      <c r="E17" t="s">
+        <v>180</v>
+      </c>
       <c r="G17" t="s">
         <v>170</v>
       </c>
@@ -1466,6 +1631,9 @@
       <c r="D18" t="s">
         <v>26</v>
       </c>
+      <c r="E18" t="s">
+        <v>181</v>
+      </c>
       <c r="G18" t="s">
         <v>170</v>
       </c>
@@ -1486,6 +1654,9 @@
       <c r="D19" t="s">
         <v>27</v>
       </c>
+      <c r="E19" t="s">
+        <v>182</v>
+      </c>
       <c r="G19" t="s">
         <v>170</v>
       </c>
@@ -1514,6 +1685,9 @@
       <c r="D21" t="s">
         <v>28</v>
       </c>
+      <c r="E21" t="s">
+        <v>178</v>
+      </c>
       <c r="F21" t="s">
         <v>169</v>
       </c>
@@ -1537,6 +1711,9 @@
       <c r="D22" t="s">
         <v>29</v>
       </c>
+      <c r="E22" t="s">
+        <v>178</v>
+      </c>
       <c r="G22" t="s">
         <v>170</v>
       </c>
@@ -1557,6 +1734,9 @@
       <c r="D23" t="s">
         <v>30</v>
       </c>
+      <c r="E23" t="s">
+        <v>178</v>
+      </c>
       <c r="F23" t="s">
         <v>169</v>
       </c>
@@ -1583,6 +1763,9 @@
       <c r="D24" t="s">
         <v>31</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="G24" t="s">
         <v>170</v>
       </c>
@@ -1606,6 +1789,9 @@
       <c r="D25" t="s">
         <v>32</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="G25" t="s">
         <v>170</v>
       </c>
@@ -1629,6 +1815,9 @@
       <c r="D26" t="s">
         <v>33</v>
       </c>
+      <c r="E26" t="s">
+        <v>183</v>
+      </c>
       <c r="G26" t="s">
         <v>170</v>
       </c>
@@ -1649,6 +1838,9 @@
       <c r="D27" t="s">
         <v>34</v>
       </c>
+      <c r="E27" t="s">
+        <v>184</v>
+      </c>
       <c r="G27" t="s">
         <v>170</v>
       </c>
@@ -1669,6 +1861,9 @@
       <c r="D28" t="s">
         <v>35</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="G28" t="s">
         <v>170</v>
       </c>
@@ -1689,6 +1884,9 @@
       <c r="D29" t="s">
         <v>36</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="G29" t="s">
         <v>170</v>
       </c>
@@ -1709,6 +1907,9 @@
       <c r="D30" t="s">
         <v>37</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="G30" t="s">
         <v>170</v>
       </c>
@@ -1729,6 +1930,9 @@
       <c r="D31" t="s">
         <v>38</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="G31" t="s">
         <v>170</v>
       </c>
@@ -1749,6 +1953,9 @@
       <c r="D32" t="s">
         <v>39</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="G32" t="s">
         <v>170</v>
       </c>
@@ -1769,6 +1976,9 @@
       <c r="D33" t="s">
         <v>40</v>
       </c>
+      <c r="E33" t="s">
+        <v>185</v>
+      </c>
       <c r="G33" t="s">
         <v>170</v>
       </c>
@@ -1797,6 +2007,9 @@
       <c r="D35" t="s">
         <v>41</v>
       </c>
+      <c r="E35" t="s">
+        <v>186</v>
+      </c>
       <c r="F35" t="s">
         <v>169</v>
       </c>
@@ -1820,6 +2033,9 @@
       <c r="D36" t="s">
         <v>42</v>
       </c>
+      <c r="E36" t="s">
+        <v>186</v>
+      </c>
       <c r="F36" t="s">
         <v>169</v>
       </c>
@@ -1843,6 +2059,9 @@
       <c r="D37" t="s">
         <v>43</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G37" t="s">
         <v>170</v>
       </c>
@@ -1863,6 +2082,9 @@
       <c r="D38" t="s">
         <v>44</v>
       </c>
+      <c r="E38" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G38" t="s">
         <v>170</v>
       </c>
@@ -1883,6 +2105,9 @@
       <c r="D39" t="s">
         <v>45</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="F39" t="s">
         <v>169</v>
       </c>
@@ -1906,6 +2131,9 @@
       <c r="D40" t="s">
         <v>46</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G40" t="s">
         <v>170</v>
       </c>
@@ -1926,6 +2154,9 @@
       <c r="D41" t="s">
         <v>47</v>
       </c>
+      <c r="E41" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G41" t="s">
         <v>170</v>
       </c>
@@ -1946,6 +2177,9 @@
       <c r="D42" t="s">
         <v>48</v>
       </c>
+      <c r="E42" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="F42" t="s">
         <v>169</v>
       </c>
@@ -1969,6 +2203,9 @@
       <c r="D43" t="s">
         <v>49</v>
       </c>
+      <c r="E43" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G43" t="s">
         <v>170</v>
       </c>
@@ -1989,6 +2226,9 @@
       <c r="D44" t="s">
         <v>50</v>
       </c>
+      <c r="E44" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G44" t="s">
         <v>170</v>
       </c>
@@ -2017,6 +2257,9 @@
       <c r="D46" t="s">
         <v>51</v>
       </c>
+      <c r="E46" t="s">
+        <v>187</v>
+      </c>
       <c r="F46" t="s">
         <v>169</v>
       </c>
@@ -2040,6 +2283,9 @@
       <c r="D47" t="s">
         <v>52</v>
       </c>
+      <c r="E47" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="F47" t="s">
         <v>169</v>
       </c>
@@ -2063,6 +2309,9 @@
       <c r="D48" t="s">
         <v>53</v>
       </c>
+      <c r="E48" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="G48" t="s">
         <v>170</v>
       </c>
@@ -2083,6 +2332,9 @@
       <c r="D49" t="s">
         <v>54</v>
       </c>
+      <c r="E49" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="G49" t="s">
         <v>170</v>
       </c>
@@ -2103,6 +2355,9 @@
       <c r="D50" t="s">
         <v>55</v>
       </c>
+      <c r="E50" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="F50" t="s">
         <v>169</v>
       </c>
@@ -2126,6 +2381,9 @@
       <c r="D51" t="s">
         <v>56</v>
       </c>
+      <c r="E51" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="G51" t="s">
         <v>170</v>
       </c>
@@ -2146,6 +2404,9 @@
       <c r="D52" t="s">
         <v>57</v>
       </c>
+      <c r="E52" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="G52" t="s">
         <v>170</v>
       </c>
@@ -2166,6 +2427,9 @@
       <c r="D53" t="s">
         <v>58</v>
       </c>
+      <c r="E53" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="F53" t="s">
         <v>169</v>
       </c>
@@ -2189,6 +2453,9 @@
       <c r="D54" t="s">
         <v>59</v>
       </c>
+      <c r="E54" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="G54" t="s">
         <v>170</v>
       </c>
@@ -2209,6 +2476,9 @@
       <c r="D55" t="s">
         <v>60</v>
       </c>
+      <c r="E55" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="G55" t="s">
         <v>170</v>
       </c>
@@ -2245,6 +2515,9 @@
       <c r="D58" t="s">
         <v>61</v>
       </c>
+      <c r="E58" t="s">
+        <v>188</v>
+      </c>
       <c r="F58" t="s">
         <v>169</v>
       </c>
@@ -2268,6 +2541,9 @@
       <c r="D59" t="s">
         <v>62</v>
       </c>
+      <c r="E59" t="s">
+        <v>189</v>
+      </c>
       <c r="G59" t="s">
         <v>170</v>
       </c>
@@ -2288,6 +2564,9 @@
       <c r="D60" t="s">
         <v>63</v>
       </c>
+      <c r="E60" t="s">
+        <v>190</v>
+      </c>
       <c r="F60" t="s">
         <v>169</v>
       </c>
@@ -2311,6 +2590,9 @@
       <c r="D61" t="s">
         <v>64</v>
       </c>
+      <c r="E61" t="s">
+        <v>191</v>
+      </c>
       <c r="F61" t="s">
         <v>169</v>
       </c>
@@ -2334,6 +2616,9 @@
       <c r="D62" t="s">
         <v>65</v>
       </c>
+      <c r="E62" t="s">
+        <v>196</v>
+      </c>
       <c r="G62" t="s">
         <v>170</v>
       </c>
@@ -2362,6 +2647,9 @@
       <c r="D64" t="s">
         <v>66</v>
       </c>
+      <c r="E64" t="s">
+        <v>192</v>
+      </c>
       <c r="G64" t="s">
         <v>170</v>
       </c>
@@ -2382,6 +2670,9 @@
       <c r="D65" t="s">
         <v>67</v>
       </c>
+      <c r="E65" t="s">
+        <v>193</v>
+      </c>
       <c r="G65" t="s">
         <v>170</v>
       </c>
@@ -2402,6 +2693,9 @@
       <c r="D66" t="s">
         <v>68</v>
       </c>
+      <c r="E66" t="s">
+        <v>194</v>
+      </c>
       <c r="G66" t="s">
         <v>171</v>
       </c>
@@ -2422,6 +2716,9 @@
       <c r="D67" t="s">
         <v>69</v>
       </c>
+      <c r="E67" t="s">
+        <v>195</v>
+      </c>
       <c r="G67" t="s">
         <v>171</v>
       </c>
@@ -2442,6 +2739,9 @@
       <c r="D68" t="s">
         <v>70</v>
       </c>
+      <c r="E68" t="s">
+        <v>197</v>
+      </c>
       <c r="G68" t="s">
         <v>170</v>
       </c>
@@ -2470,6 +2770,9 @@
       <c r="D70" t="s">
         <v>71</v>
       </c>
+      <c r="E70" t="s">
+        <v>198</v>
+      </c>
       <c r="G70" t="s">
         <v>170</v>
       </c>
@@ -2490,6 +2793,9 @@
       <c r="D71" t="s">
         <v>72</v>
       </c>
+      <c r="E71" t="s">
+        <v>193</v>
+      </c>
       <c r="G71" t="s">
         <v>170</v>
       </c>
@@ -2510,6 +2816,9 @@
       <c r="D72" t="s">
         <v>73</v>
       </c>
+      <c r="E72" t="s">
+        <v>194</v>
+      </c>
       <c r="G72" t="s">
         <v>171</v>
       </c>
@@ -2530,6 +2839,9 @@
       <c r="D73" t="s">
         <v>74</v>
       </c>
+      <c r="E73" t="s">
+        <v>195</v>
+      </c>
       <c r="G73" t="s">
         <v>171</v>
       </c>
@@ -2550,6 +2862,9 @@
       <c r="D74" t="s">
         <v>75</v>
       </c>
+      <c r="E74" t="s">
+        <v>197</v>
+      </c>
       <c r="G74" t="s">
         <v>170</v>
       </c>
@@ -2578,6 +2893,9 @@
       <c r="D76" t="s">
         <v>76</v>
       </c>
+      <c r="E76" t="s">
+        <v>199</v>
+      </c>
       <c r="G76" t="s">
         <v>170</v>
       </c>
@@ -2598,6 +2916,9 @@
       <c r="D77" t="s">
         <v>77</v>
       </c>
+      <c r="E77" t="s">
+        <v>200</v>
+      </c>
       <c r="G77" t="s">
         <v>170</v>
       </c>
@@ -2618,6 +2939,9 @@
       <c r="D78" t="s">
         <v>78</v>
       </c>
+      <c r="E78" t="s">
+        <v>201</v>
+      </c>
       <c r="G78" t="s">
         <v>171</v>
       </c>
@@ -2638,6 +2962,9 @@
       <c r="D79" t="s">
         <v>79</v>
       </c>
+      <c r="E79" t="s">
+        <v>202</v>
+      </c>
       <c r="G79" t="s">
         <v>171</v>
       </c>
@@ -2658,6 +2985,9 @@
       <c r="D80" t="s">
         <v>80</v>
       </c>
+      <c r="E80" t="s">
+        <v>203</v>
+      </c>
       <c r="G80" t="s">
         <v>170</v>
       </c>
@@ -2698,6 +3028,9 @@
       <c r="D82" t="s">
         <v>82</v>
       </c>
+      <c r="E82" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="G82" t="s">
         <v>170</v>
       </c>
@@ -2718,6 +3051,9 @@
       <c r="D83" t="s">
         <v>83</v>
       </c>
+      <c r="E83" t="s">
+        <v>205</v>
+      </c>
       <c r="G83" t="s">
         <v>170</v>
       </c>
@@ -2738,6 +3074,9 @@
       <c r="D84" t="s">
         <v>84</v>
       </c>
+      <c r="E84" t="s">
+        <v>206</v>
+      </c>
       <c r="G84" t="s">
         <v>170</v>
       </c>
@@ -2758,6 +3097,9 @@
       <c r="D85" t="s">
         <v>85</v>
       </c>
+      <c r="E85" t="s">
+        <v>207</v>
+      </c>
       <c r="G85" t="s">
         <v>170</v>
       </c>
@@ -2778,6 +3120,9 @@
       <c r="D86" t="s">
         <v>86</v>
       </c>
+      <c r="E86" t="s">
+        <v>208</v>
+      </c>
       <c r="G86" t="s">
         <v>170</v>
       </c>
@@ -2788,5 +3133,6 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>